--- a/ExcelWorkerUnitTest/TestData/InvalidFormat.xlsx
+++ b/ExcelWorkerUnitTest/TestData/InvalidFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jszom\source\repos\IndustrialUnitProvider\ExcelWorkerUnitTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D18FF38-9ED9-4281-95E7-8E7170020234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2037C2-561E-4AF3-AEA0-3AAAF2301667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1A917C4D-1CAA-4560-933B-C6D9B5FC1748}"/>
+    <workbookView xWindow="-23850" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1A917C4D-1CAA-4560-933B-C6D9B5FC1748}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Blower</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +510,9 @@
       <c r="C2">
         <v>25</v>
       </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
       <c r="E2">
         <v>55</v>
       </c>
@@ -524,8 +530,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>365</v>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -556,7 +562,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +632,9 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>

--- a/ExcelWorkerUnitTest/TestData/InvalidFormat.xlsx
+++ b/ExcelWorkerUnitTest/TestData/InvalidFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jszom\source\repos\IndustrialUnitProvider\ExcelWorkerUnitTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2037C2-561E-4AF3-AEA0-3AAAF2301667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738591F-307B-49AF-A545-A5915B52D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23850" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1A917C4D-1CAA-4560-933B-C6D9B5FC1748}"/>
+    <workbookView xWindow="-24030" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{1A917C4D-1CAA-4560-933B-C6D9B5FC1748}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Blower</t>
   </si>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD7CE1A-B248-4F9B-8BFE-A16B3FE952C7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,8 +507,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>25</v>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9842385-AF26-42A9-BB09-5EA1392BBBF5}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
